--- a/DevOps Merge Template.xlsx
+++ b/DevOps Merge Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Clouse\OneDrive - mcaConnect, LLC\Personal\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclouse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{16C005AF-F821-46EB-8EFE-78F3FD832C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98813000-86C2-45B2-B94F-B16E9C07BD88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFF000E-B780-42E1-B6CC-13198F6D744A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CC9E204-37E4-4DFD-8CFB-FC4F9DC967FC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CC9E204-37E4-4DFD-8CFB-FC4F9DC967FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Merges" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +152,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,13 +213,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF8EA9DB"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF8EA9DB"/>
         </left>
@@ -235,6 +222,13 @@
         <top style="thin">
           <color rgb="FF8EA9DB"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF8EA9DB"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF8EA9DB"/>
         </bottom>
@@ -356,10 +350,10 @@
     <tableColumn id="6" xr3:uid="{826573E3-3759-4353-AF07-0EFF9E07B335}" name="Change Request" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{37E55A50-0746-4928-A6BD-6C85084C9930}" name="Source" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{2F358B3A-CAED-4E61-BBBB-1CB519E08461}" name="Target" dataCellStyle="Normal">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Task]]&lt;&gt; "", "$/Dev/DevRelease", "")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B2, "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{CD97876A-3707-4756-BA84-E6449C3EF07D}" name="Comment" dataCellStyle="Normal">
-      <calculatedColumnFormula>IF(B2&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(G2&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -367,7 +361,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27F4AC66-0C58-45DD-8A05-A52F62007A5E}" name="Table13" displayName="Table13" ref="A1:I37" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27F4AC66-0C58-45DD-8A05-A52F62007A5E}" name="Table13" displayName="Table13" ref="A1:I37" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1" dataCellStyle="Normal">
   <autoFilter ref="A1:I37" xr:uid="{CA3774C4-8471-46D2-BF40-3C603B8015E8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8B09772C-4A4F-4E51-8720-3D6F5F0DC614}" name="Result Changeset" dataCellStyle="Normal"/>
@@ -764,7 +758,7 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", "$/Dev/DevRelease", "")</f>
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B2, "")</f>
         <v/>
       </c>
       <c r="I2" t="str">
@@ -782,11 +776,11 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", "$/Dev/DevRelease", "")</f>
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B3, "")</f>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f>IF(B3&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <f>IF(G3&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
         <v/>
       </c>
     </row>
@@ -800,11 +794,11 @@
         <v/>
       </c>
       <c r="H4" t="str">
-        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", "$/Dev/DevRelease", "")</f>
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B4, "")</f>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f>IF(B4&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <f>IF(G4&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
         <v/>
       </c>
     </row>
@@ -818,11 +812,11 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", "$/Dev/DevRelease", "")</f>
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B5, "")</f>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f>IF(B5&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <f>IF(G5&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
         <v/>
       </c>
     </row>
@@ -835,6 +829,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B5 &amp; "/_versionControl/changeset/" &amp; D6, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H6" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B6, "")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(G6&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="str">
@@ -845,6 +847,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B6 &amp; "/_versionControl/changeset/" &amp; D7, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H7" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B7, "")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(G7&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="str">
@@ -855,6 +865,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B7 &amp; "/_versionControl/changeset/" &amp; D8, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H8" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B8, "")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(G8&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="str">
@@ -865,6 +883,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B8 &amp; "/_versionControl/changeset/" &amp; D9, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H9" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B9, "")</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(G9&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="str">
@@ -875,6 +901,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B9 &amp; "/_versionControl/changeset/" &amp; D10, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H10" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B10, "")</f>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(G10&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="str">
@@ -885,6 +919,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B10 &amp; "/_versionControl/changeset/" &amp; D11, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H11" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B11, "")</f>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(G11&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="str">
@@ -895,6 +937,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B11 &amp; "/_versionControl/changeset/" &amp; D12, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H12" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B12, "")</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(G12&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="str">
@@ -905,6 +955,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B12 &amp; "/_versionControl/changeset/" &amp; D13, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H13" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B13, "")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(G13&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="str">
@@ -915,6 +973,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B13 &amp; "/_versionControl/changeset/" &amp; D14, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H14" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B14, "")</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(G14&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="str">
@@ -925,6 +991,14 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B14 &amp; "/_versionControl/changeset/" &amp; D15, "Link"),"")</f>
         <v/>
       </c>
+      <c r="H15" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B15, "")</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(G15&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="str">
@@ -935,8 +1009,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B15 &amp; "/_versionControl/changeset/" &amp; D16, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B16, "")</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(G16&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B16 &amp; "/_workitems?id=" &amp; B17 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -945,8 +1027,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B16 &amp; "/_versionControl/changeset/" &amp; D17, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B17, "")</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(G17&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B17 &amp; "/_workitems?id=" &amp; B18 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -955,8 +1045,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B17 &amp; "/_versionControl/changeset/" &amp; D18, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B18, "")</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(G18&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B18 &amp; "/_workitems?id=" &amp; B19 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -965,8 +1063,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B18 &amp; "/_versionControl/changeset/" &amp; D19, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B19, "")</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(G19&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B19 &amp; "/_workitems?id=" &amp; B20 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -975,8 +1081,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B19 &amp; "/_versionControl/changeset/" &amp; D20, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B20, "")</f>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(G20&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B20 &amp; "/_workitems?id=" &amp; B21 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -985,8 +1099,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B20 &amp; "/_versionControl/changeset/" &amp; D21, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B21, "")</f>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f>IF(G21&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B21 &amp; "/_workitems?id=" &amp; B22 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -995,8 +1117,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B21 &amp; "/_versionControl/changeset/" &amp; D22, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B22, "")</f>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(G22&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B22 &amp; "/_workitems?id=" &amp; B23 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1005,8 +1135,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B22 &amp; "/_versionControl/changeset/" &amp; D23, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B23, "")</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(G23&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B23 &amp; "/_workitems?id=" &amp; B24 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1015,8 +1153,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B23 &amp; "/_versionControl/changeset/" &amp; D24, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B24, "")</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(G24&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B24 &amp; "/_workitems?id=" &amp; B25 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1025,8 +1171,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B24 &amp; "/_versionControl/changeset/" &amp; D25, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B25, "")</f>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(G25&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B25 &amp; "/_workitems?id=" &amp; B26 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1035,8 +1189,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B25 &amp; "/_versionControl/changeset/" &amp; D26, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B26, "")</f>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(G26&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B26 &amp; "/_workitems?id=" &amp; B27 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1045,8 +1207,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B26 &amp; "/_versionControl/changeset/" &amp; D27, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B27, "")</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(G27&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B27 &amp; "/_workitems?id=" &amp; B28 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1055,8 +1225,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B27 &amp; "/_versionControl/changeset/" &amp; D28, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B28, "")</f>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f>IF(G28&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B28 &amp; "/_workitems?id=" &amp; B29 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1065,8 +1243,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B28 &amp; "/_versionControl/changeset/" &amp; D29, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B29, "")</f>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f>IF(G29&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B29 &amp; "/_workitems?id=" &amp; B30 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1075,8 +1261,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B29 &amp; "/_versionControl/changeset/" &amp; D30, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B30, "")</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f>IF(G30&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B30 &amp; "/_workitems?id=" &amp; B31 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1085,8 +1279,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B30 &amp; "/_versionControl/changeset/" &amp; D31, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B31, "")</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(G31&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B31 &amp; "/_workitems?id=" &amp; B32 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1095,8 +1297,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B31 &amp; "/_versionControl/changeset/" &amp; D32, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B32, "")</f>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(G32&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B32 &amp; "/_workitems?id=" &amp; B33 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1105,8 +1315,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B32 &amp; "/_versionControl/changeset/" &amp; D33, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B33, "")</f>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(G33&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B33 &amp; "/_workitems?id=" &amp; B34 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1115,8 +1333,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B33 &amp; "/_versionControl/changeset/" &amp; D34, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B34, "")</f>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(G34&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B34 &amp; "/_workitems?id=" &amp; B35 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1125,8 +1351,16 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B34 &amp; "/_versionControl/changeset/" &amp; D35, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B35, "")</f>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(G35&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B35 &amp; "/_workitems?id=" &amp; B36 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
@@ -1135,14 +1369,30 @@
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B35 &amp; "/_versionControl/changeset/" &amp; D36, "Link"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B36, "")</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(G36&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="str">
         <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", HYPERLINK(Setup!B36 &amp; "/_workitems?id=" &amp; B37 &amp; "&amp;_a=edit","Link"), "")</f>
         <v/>
       </c>
       <c r="E37" t="str">
         <f>IF(Table1[[#This Row],[Changeset]] &lt;&gt; "", HYPERLINK(Setup!B36 &amp; "/_versionControl/changeset/" &amp; D37, "Link"),"")</f>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(Table1[[#This Row],[Task]]&lt;&gt; "", Setup!B37, "")</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(G37&lt;&gt; "", "[" &amp; Table1[[#This Row],[Source]] &amp; " to " &amp; Table1[[#This Row],[Target]] &amp; "] :: " &amp; Table1[[#This Row],[Change Request]] &amp; ";  Merge of Changeset " &amp; Table1[[#This Row],[Changeset]], "")</f>
         <v/>
       </c>
     </row>
@@ -1660,18 +1910,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1874,6 +2124,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0BB6EB-ACAB-413F-A532-3E5BB18C010C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96924C06-93BA-4AE7-A41F-50337E3CD9C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1886,14 +2144,6 @@
     <ds:schemaRef ds:uri="710d5f26-0009-470a-b9d8-ee4a0b25fb60"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0BB6EB-ACAB-413F-A532-3E5BB18C010C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
